--- a/صيدليات دكتور مصطفي طلعت_2026-01-17_20-48.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-17_20-48.xlsx
@@ -3130,17 +3130,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3561,7 +3561,7 @@
     </row>
     <row r="102" ht="26.25" customHeight="1">
       <c r="K102" s="10">
-        <v>7024.7299999999996</v>
+        <v>7119.7299999999996</v>
       </c>
       <c r="L102" s="10"/>
       <c r="M102" s="10"/>
